--- a/biology/Botanique/Château_Guadet/Château_Guadet.xlsx
+++ b/biology/Botanique/Château_Guadet/Château_Guadet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Guadet</t>
+          <t>Château_Guadet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Guadet est un vignoble de Saint-Émilion dans le Bordelais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Guadet</t>
+          <t>Château_Guadet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vignoble est situé sur le haut plateau calcaire de "Saint-Émilion" à 50 mètres des portes de la Ville.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Guadet</t>
+          <t>Château_Guadet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom vient de la famille Guadet : Élie Guadet, natif de Saint-Émilion, est un avocat et député girondin qui se rend célèbre pendant la Révolution Française comme un des chefs des Girondins. Caché avec ses compagnons dans les  caves qui courent sous la propriété, il figure parmi les premiers nommés sur la liste de proscription[1] de Marat. Il est guillotiné le 1er messidor (19 juin 1794),  à  l'âge de 35 ans. La rue principale de Saint-Émilion, où est située la propriété, porte son nom. Son effigie se trouve sur l'étiquette et perpétue ainsi sa mémoire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom vient de la famille Guadet : Élie Guadet, natif de Saint-Émilion, est un avocat et député girondin qui se rend célèbre pendant la Révolution Française comme un des chefs des Girondins. Caché avec ses compagnons dans les  caves qui courent sous la propriété, il figure parmi les premiers nommés sur la liste de proscription de Marat. Il est guillotiné le 1er messidor (19 juin 1794),  à  l'âge de 35 ans. La rue principale de Saint-Émilion, où est située la propriété, porte son nom. Son effigie se trouve sur l'étiquette et perpétue ainsi sa mémoire.
 Aujourd'hui, Guy Pétrus Lignac, petit neveu de Marie-Louise Loubat, fondatrice du célèbre Pétrus, gère le vignoble. Le château Guadet Saint-Julien appartient à la famille depuis 1844.
 Le vignoble, situé à la porte de Saint-Émilion, nommée « Porte Bourgeoise », est conduit par Guy Pétrus Lignac.
 Ce petit vignoble combine la technologie moderne et le savoir-faire ancestral avec le concours de Stéphane Derenoncourt et de son équipe sous la direction de Guy Petrus qui travaille au maintien de la renommée du vignoble.[passage promotionnel]
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Guadet</t>
+          <t>Château_Guadet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Le vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à 50 mètres de l'entrée nord du village, le vignoble se compose de 75 % de merlot et 25 % de cabernet franc, pour une superficie de 5ha50.  Il repose sur des sols peu profonds à dominante argilo-sablonneuse sur le plateau calcaire de Saint-Emilion.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Guadet</t>
+          <t>Château_Guadet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Les médailles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médaille d'or à l'exposition universelle de Paris en 1867
 Vainqueur de la 1re coupe des grands crus classés de Saint-Émilion 1988 en battant en finale "château Canon La Gaffelière" avec les millésimes 1982, 1983 et 1985
